--- a/Tools/Luban/MiniDesignerConfigsTemplate/Datas/__enums__.xlsx
+++ b/Tools/Luban/MiniDesignerConfigsTemplate/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>##var</t>
   </si>
@@ -68,78 +68,6 @@
   </si>
   <si>
     <t>注释</t>
-  </si>
-  <si>
-    <t>Constants.Color</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>白</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>黑</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>蓝</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>红</t>
-  </si>
-  <si>
-    <t>Constants.Quality</t>
-  </si>
-  <si>
-    <t>Highest</t>
-  </si>
-  <si>
-    <t>最高品质</t>
-  </si>
-  <si>
-    <t>Unique</t>
-  </si>
-  <si>
-    <t>暗金的</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>亮金的</t>
-  </si>
-  <si>
-    <t>Enchanted</t>
-  </si>
-  <si>
-    <t>附魔的</t>
-  </si>
-  <si>
-    <t>EnchantedUnique</t>
-  </si>
-  <si>
-    <t>暗金/附魔的</t>
-  </si>
-  <si>
-    <t>Enchanted|Unique</t>
-  </si>
-  <si>
-    <t>EnchantedNormal</t>
-  </si>
-  <si>
-    <t>亮金/附魔的</t>
-  </si>
-  <si>
-    <t>Enchanted|Normal</t>
   </si>
 </sst>
 </file>
@@ -147,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -161,6 +89,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -169,6 +179,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -178,14 +196,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,90 +211,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,7 +227,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,25 +254,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,151 +422,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,6 +457,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -544,51 +498,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -612,17 +531,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,148 +559,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1111,13 +1039,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="8.25" customWidth="1"/>
@@ -1209,164 +1137,8 @@
       </c>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" s="2" customFormat="1" spans="2:10">
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="7:10">
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="7:10">
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="7:10">
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="2:10">
-      <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="7:10">
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="7:10">
-      <c r="G10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
-      <c r="J10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="7:10">
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11">
-        <v>8</v>
-      </c>
-      <c r="J11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="7:10">
-      <c r="G12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="7:10">
-      <c r="G13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" t="s">
-        <v>40</v>
-      </c>
-    </row>
+    <row r="4" s="2" customFormat="1"/>
+    <row r="8" s="2" customFormat="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:K1"/>

--- a/Tools/Luban/MiniDesignerConfigsTemplate/Datas/__enums__.xlsx
+++ b/Tools/Luban/MiniDesignerConfigsTemplate/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -68,6 +68,33 @@
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>Enums.ItemEffectType</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>经验值</t>
+  </si>
+  <si>
+    <t>Coin</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>Diamond</t>
+  </si>
+  <si>
+    <t>钻石</t>
+  </si>
+  <si>
+    <t>Ticket</t>
+  </si>
+  <si>
+    <t>票</t>
   </si>
 </sst>
 </file>
@@ -75,9 +102,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -89,6 +116,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -96,47 +161,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,58 +207,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -210,24 +215,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,181 +281,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,28 +484,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,35 +547,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,153 +570,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1042,13 +1069,13 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="8.25" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="9.375" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
@@ -1137,7 +1164,44 @@
       </c>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" s="2" customFormat="1"/>
+    <row r="4" s="2" customFormat="1" spans="3:11">
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="8:11">
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="8:11">
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="8:11">
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="8" s="2" customFormat="1"/>
   </sheetData>
   <mergeCells count="1">

--- a/Tools/Luban/MiniDesignerConfigsTemplate/Datas/__enums__.xlsx
+++ b/Tools/Luban/MiniDesignerConfigsTemplate/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,9 +102,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -116,11 +116,139 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -131,134 +259,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -281,13 +281,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,7 +365,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,49 +419,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,97 +449,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,6 +484,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -501,18 +525,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,21 +545,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,18 +567,16 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -589,10 +589,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,37 +601,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,94 +634,100 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1069,7 +1069,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1164,41 +1164,47 @@
       </c>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" s="2" customFormat="1" spans="3:11">
-      <c r="C4" s="2" t="s">
+    <row r="4" s="2" customFormat="1" spans="2:10">
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="b">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="E4" s="2"/>
+      <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="H4" s="2"/>
+      <c r="J4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="8:11">
-      <c r="H5" t="s">
+    <row r="5" spans="7:10">
+      <c r="G5" t="s">
         <v>21</v>
       </c>
-      <c r="K5" t="s">
+      <c r="H5"/>
+      <c r="J5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="8:11">
-      <c r="H6" t="s">
+    <row r="6" spans="7:10">
+      <c r="G6" t="s">
         <v>23</v>
       </c>
-      <c r="K6" t="s">
+      <c r="H6"/>
+      <c r="J6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="8:11">
-      <c r="H7" t="s">
+    <row r="7" spans="7:10">
+      <c r="G7" t="s">
         <v>25</v>
       </c>
-      <c r="K7" t="s">
+      <c r="H7"/>
+      <c r="J7" t="s">
         <v>26</v>
       </c>
     </row>
